--- a/kubernetes_info.xlsx
+++ b/kubernetes_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,31 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{
-  "clientVersion": {
-    "major": "1",
-    "minor": "28",
-    "gitVersion": "v1.28.2",
-    "gitCommit": "89a4ea3e1e4ddd7f7572286090359983e0387b2f",
-    "gitTreeState": "clean",
-    "buildDate": "2023-09-13T09:29:06Z",
-    "goVersion": "go1.20.8",
-    "compiler": "gc",
-    "platform": "darwin/arm64"
-  },
-  "kustomizeVersion": "v5.0.4-0.20230601165947-6ce0bf390ce3",
-  "serverVersion": {
-    "major": "1",
-    "minor": "26",
-    "gitVersion": "v1.26.5+7d22122",
-    "gitCommit": "2fc599b5fd3f060dd20094b520f0f529fd2f52db",
-    "gitTreeState": "clean",
-    "buildDate": "2023-06-07T20:30:17Z",
-    "goVersion": "go1.19.9",
-    "compiler": "gc",
-    "platform": "linux/amd64"
-  }
-}</t>
+          <t>{'clientVersion': {'major': '1', 'minor': '28', 'gitVersion': 'v1.28.2', 'gitCommit': '89a4ea3e1e4ddd7f7572286090359983e0387b2f', 'gitTreeState': 'clean', 'buildDate': '2023-09-13T09:29:06Z', 'goVersion': 'go1.20.8', 'compiler': 'gc', 'platform': 'darwin/arm64'}, 'kustomizeVersion': 'v5.0.4-0.20230601165947-6ce0bf390ce3', 'serverVersion': {'major': '1', 'minor': '24', 'gitVersion': 'v1.24.15', 'gitCommit': '2c67202dc0bb96a7a837cbfb8d72e1f34dfc2808', 'gitTreeState': 'clean', 'buildDate': '2023-06-19T16:12:03Z', 'goVersion': 'go1.19.10', 'compiler': 'gc', 'platform': 'linux/amd64'}}</t>
         </is>
       </c>
     </row>
@@ -521,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Manual check required</t>
+          <t>Azure Kubernetes Service (AKS)</t>
         </is>
       </c>
     </row>
@@ -538,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>cri-o://1.26.3-10.rhaos4.13.git994242a.el9 cri-o://1.26.3-10.rhaos4.13.git994242a.el9 cri-o://1.26.3-10.rhaos4.13.git994242a.el9 cri-o://1.26.3-10.rhaos4.13.git994242a.el9 cri-o://1.26.3-10.rhaos4.13.git994242a.el9</t>
+          <t>containerd://1.7.1+azure-1 containerd://1.7.1+azure-1 containerd://1.7.1+azure-1 containerd://1.7.1+azure-1</t>
         </is>
       </c>
     </row>
@@ -555,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>linux linux linux linux linux/amd64 amd64 amd64 amd64 amd64</t>
+          <t>linux linux linux linux/amd64 amd64 amd64 amd64</t>
         </is>
       </c>
     </row>
@@ -570,23 +546,7 @@
           <t>Resource Quotas</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Name:       asset-mgmt-priorityclass-quota
-Namespace:  checkpoint
-Resource    Used  Hard
---------    ----  ----
-Name:                   host-network-namespace-quotas
-Namespace:              openshift-host-network
-Resource                Used  Hard
---------                ----  ----
-count/daemonsets.apps   0     0
-count/deployments.apps  0     0
-limits.cpu              0     0
-limits.memory           0     0
-pods                    0     0</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -601,7 +561,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>disabled</t>
+          <t>not configured</t>
         </is>
       </c>
     </row>
@@ -616,7 +576,11 @@
           <t>PSPs in Place</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -651,98 +615,107 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Node Affinities &amp; Tolerations</t>
+          <t>Internet Access</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Taints applied to nodes</t>
+          <t>Direct Internet Access for Pods</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[{"effect":"NoSchedule","key":"node-role.kubernetes.io/master"}] [{"effect":"NoSchedule","key":"node-role.kubernetes.io/master"}] [{"effect":"NoSchedule","key":"node-role.kubernetes.io/master"}]</t>
+          <t>Internet access is available for pods.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Annotations</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mandatory annotations for workloads</t>
+          <t>Available storage classes and any restrictions</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Manual check required</t>
+          <t>NAME                    PROVISIONER          RECLAIMPOLICY   VOLUMEBINDINGMODE      ALLOWVOLUMEEXPANSION   AGE
+azurefile               file.csi.azure.com   Delete          Immediate              true                   237d
+azurefile-csi           file.csi.azure.com   Delete          Immediate              true                   237d
+azurefile-csi-premium   file.csi.azure.com   Delete          Immediate              true                   237d
+azurefile-premium       file.csi.azure.com   Delete          Immediate              true                   237d
+default (default)       disk.csi.azure.com   Delete          WaitForFirstConsumer   true                   237d
+managed                 disk.csi.azure.com   Delete          WaitForFirstConsumer   true                   237d
+managed-csi             disk.csi.azure.com   Delete          WaitForFirstConsumer   true                   237d
+managed-csi-premium     disk.csi.azure.com   Delete          WaitForFirstConsumer   true                   237d
+managed-premium         disk.csi.azure.com   Delete          WaitForFirstConsumer   true                   237d</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Annotations</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Required annotations for network policies or security</t>
+          <t>Dynamic provisioning status</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Manual check required</t>
+          <t>azurefile azurefile-csi azurefile-csi-premium azurefile-premium default managed managed-csi managed-csi-premium managed-premium</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Service Accounts &amp; RBAC</t>
+          <t>Ingress/Egress</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RBAC status</t>
+          <t>Ingress controller in use</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>enforced</t>
+          <t xml:space="preserve">Error: error: the server doesn't have a resource type "ingresscontrollers"
+</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Network Policies</t>
+          <t>Ingress/Egress</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Default deny network policies status</t>
+          <t>Egress restrictions or firewall rules</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NAMESPACE            NAME                                POD-SELECTOR   AGE
-assisted-installer   assisted-installer-network-policy   &lt;none&gt;         119d</t>
+          <t>Manual check required</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Network Policies</t>
+          <t>Third-party Integrations</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Additional network policies required</t>
+          <t>Tools or platforms integrated with the cluster</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -754,110 +727,15 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Internet Access</t>
+          <t>Image Repositories</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Direct Internet Access for Pods</t>
+          <t>List all Image Repositories</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
-        <is>
-          <t>Manual check required (Check network policies, egress settings, and potentially service configurations)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Available storage classes and any restrictions</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Dynamic provisioning status</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Ingress/Egress</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Ingress controller in use</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>NAMESPACE                    NAME      AGE
-openshift-ingress-operator   default   119d</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Ingress/Egress</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Egress restrictions or firewall rules</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Manual check required</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Third-party Integrations</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Tools or platforms integrated with the cluster</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Manual check required</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Image Repositories to onboard</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>List all Image Repositories</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>Manual check required</t>
         </is>

--- a/kubernetes_info.xlsx
+++ b/kubernetes_info.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'clientVersion': {'major': '1', 'minor': '28', 'gitVersion': 'v1.28.2', 'gitCommit': '89a4ea3e1e4ddd7f7572286090359983e0387b2f', 'gitTreeState': 'clean', 'buildDate': '2023-09-13T09:29:06Z', 'goVersion': 'go1.20.8', 'compiler': 'gc', 'platform': 'darwin/arm64'}, 'kustomizeVersion': 'v5.0.4-0.20230601165947-6ce0bf390ce3', 'serverVersion': {'major': '1', 'minor': '24', 'gitVersion': 'v1.24.15', 'gitCommit': '2c67202dc0bb96a7a837cbfb8d72e1f34dfc2808', 'gitTreeState': 'clean', 'buildDate': '2023-06-19T16:12:03Z', 'goVersion': 'go1.19.10', 'compiler': 'gc', 'platform': 'linux/amd64'}}</t>
+          <t>Client: v1.28 v1.28.2, Server: v1.24 v1.24.15</t>
         </is>
       </c>
     </row>
@@ -637,21 +637,236 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Available storage classes and any restrictions</t>
+          <t>Available storage classes</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NAME                    PROVISIONER          RECLAIMPOLICY   VOLUMEBINDINGMODE      ALLOWVOLUMEEXPANSION   AGE
-azurefile               file.csi.azure.com   Delete          Immediate              true                   237d
-azurefile-csi           file.csi.azure.com   Delete          Immediate              true                   237d
-azurefile-csi-premium   file.csi.azure.com   Delete          Immediate              true                   237d
-azurefile-premium       file.csi.azure.com   Delete          Immediate              true                   237d
-default (default)       disk.csi.azure.com   Delete          WaitForFirstConsumer   true                   237d
-managed                 disk.csi.azure.com   Delete          WaitForFirstConsumer   true                   237d
-managed-csi             disk.csi.azure.com   Delete          WaitForFirstConsumer   true                   237d
-managed-csi-premium     disk.csi.azure.com   Delete          WaitForFirstConsumer   true                   237d
-managed-premium         disk.csi.azure.com   Delete          WaitForFirstConsumer   true                   237d</t>
+          <t>{
+    "apiVersion": "v1",
+    "items": [
+        {
+            "allowVolumeExpansion": true,
+            "apiVersion": "storage.k8s.io/v1",
+            "kind": "StorageClass",
+            "metadata": {
+                "creationTimestamp": "2023-03-16T01:41:36Z",
+                "labels": {
+                    "addonmanager.kubernetes.io/mode": "EnsureExists",
+                    "kubernetes.io/cluster-service": "true"
+                },
+                "name": "azurefile",
+                "resourceVersion": "332",
+                "uid": "8d966feb-560c-4e71-9008-d980286ff7a1"
+            },
+            "mountOptions": [
+                "mfsymlinks",
+                "actimeo=30",
+                "nosharesock"
+            ],
+            "parameters": {
+                "skuName": "Standard_LRS"
+            },
+            "provisioner": "file.csi.azure.com",
+            "reclaimPolicy": "Delete",
+            "volumeBindingMode": "Immediate"
+        },
+        {
+            "allowVolumeExpansion": true,
+            "apiVersion": "storage.k8s.io/v1",
+            "kind": "StorageClass",
+            "metadata": {
+                "creationTimestamp": "2023-03-16T01:41:36Z",
+                "labels": {
+                    "addonmanager.kubernetes.io/mode": "EnsureExists",
+                    "kubernetes.io/cluster-service": "true"
+                },
+                "name": "azurefile-csi",
+                "resourceVersion": "334",
+                "uid": "241101bc-ceb4-4971-8142-3cb6b7619fad"
+            },
+            "mountOptions": [
+                "mfsymlinks",
+                "actimeo=30",
+                "nosharesock"
+            ],
+            "parameters": {
+                "skuName": "Standard_LRS"
+            },
+            "provisioner": "file.csi.azure.com",
+            "reclaimPolicy": "Delete",
+            "volumeBindingMode": "Immediate"
+        },
+        {
+            "allowVolumeExpansion": true,
+            "apiVersion": "storage.k8s.io/v1",
+            "kind": "StorageClass",
+            "metadata": {
+                "creationTimestamp": "2023-03-16T01:41:36Z",
+                "labels": {
+                    "addonmanager.kubernetes.io/mode": "EnsureExists",
+                    "kubernetes.io/cluster-service": "true"
+                },
+                "name": "azurefile-csi-premium",
+                "resourceVersion": "335",
+                "uid": "39fa8a8f-a64b-43c8-9d2c-0668565b8ca9"
+            },
+            "mountOptions": [
+                "mfsymlinks",
+                "actimeo=30",
+                "nosharesock"
+            ],
+            "parameters": {
+                "skuName": "Premium_LRS"
+            },
+            "provisioner": "file.csi.azure.com",
+            "reclaimPolicy": "Delete",
+            "volumeBindingMode": "Immediate"
+        },
+        {
+            "allowVolumeExpansion": true,
+            "apiVersion": "storage.k8s.io/v1",
+            "kind": "StorageClass",
+            "metadata": {
+                "creationTimestamp": "2023-03-16T01:41:36Z",
+                "labels": {
+                    "addonmanager.kubernetes.io/mode": "EnsureExists",
+                    "kubernetes.io/cluster-service": "true"
+                },
+                "name": "azurefile-premium",
+                "resourceVersion": "333",
+                "uid": "db331aa4-163c-4117-ba53-53969f979e31"
+            },
+            "mountOptions": [
+                "mfsymlinks",
+                "actimeo=30",
+                "nosharesock"
+            ],
+            "parameters": {
+                "skuName": "Premium_LRS"
+            },
+            "provisioner": "file.csi.azure.com",
+            "reclaimPolicy": "Delete",
+            "volumeBindingMode": "Immediate"
+        },
+        {
+            "allowVolumeExpansion": true,
+            "apiVersion": "storage.k8s.io/v1",
+            "kind": "StorageClass",
+            "metadata": {
+                "annotations": {
+                    "storageclass.kubernetes.io/is-default-class": "true"
+                },
+                "creationTimestamp": "2023-03-16T01:41:36Z",
+                "labels": {
+                    "addonmanager.kubernetes.io/mode": "EnsureExists",
+                    "kubernetes.io/cluster-service": "true"
+                },
+                "name": "default",
+                "resourceVersion": "329",
+                "uid": "990cf321-f43d-4bc5-9818-7d48b25ae8e8"
+            },
+            "parameters": {
+                "skuname": "StandardSSD_LRS"
+            },
+            "provisioner": "disk.csi.azure.com",
+            "reclaimPolicy": "Delete",
+            "volumeBindingMode": "WaitForFirstConsumer"
+        },
+        {
+            "allowVolumeExpansion": true,
+            "apiVersion": "storage.k8s.io/v1",
+            "kind": "StorageClass",
+            "metadata": {
+                "creationTimestamp": "2023-03-16T01:41:36Z",
+                "labels": {
+                    "addonmanager.kubernetes.io/mode": "EnsureExists",
+                    "kubernetes.io/cluster-service": "true"
+                },
+                "name": "managed",
+                "resourceVersion": "327",
+                "uid": "67b1c416-9ba2-476f-aa77-0eb8dccf5e9d"
+            },
+            "parameters": {
+                "cachingmode": "ReadOnly",
+                "kind": "Managed",
+                "storageaccounttype": "StandardSSD_LRS"
+            },
+            "provisioner": "disk.csi.azure.com",
+            "reclaimPolicy": "Delete",
+            "volumeBindingMode": "WaitForFirstConsumer"
+        },
+        {
+            "allowVolumeExpansion": true,
+            "apiVersion": "storage.k8s.io/v1",
+            "kind": "StorageClass",
+            "metadata": {
+                "creationTimestamp": "2023-03-16T01:41:36Z",
+                "labels": {
+                    "addonmanager.kubernetes.io/mode": "EnsureExists",
+                    "kubernetes.io/cluster-service": "true"
+                },
+                "name": "managed-csi",
+                "resourceVersion": "330",
+                "uid": "449b0b9b-5b11-49b3-9bbf-fa2c86db925d"
+            },
+            "parameters": {
+                "skuname": "StandardSSD_LRS"
+            },
+            "provisioner": "disk.csi.azure.com",
+            "reclaimPolicy": "Delete",
+            "volumeBindingMode": "WaitForFirstConsumer"
+        },
+        {
+            "allowVolumeExpansion": true,
+            "apiVersion": "storage.k8s.io/v1",
+            "kind": "StorageClass",
+            "metadata": {
+                "creationTimestamp": "2023-03-16T01:41:36Z",
+                "labels": {
+                    "addonmanager.kubernetes.io/mode": "EnsureExists",
+                    "kubernetes.io/cluster-service": "true"
+                },
+                "name": "managed-csi-premium",
+                "resourceVersion": "331",
+                "uid": "41690159-b6d1-43d6-b159-eaaf6500e1a2"
+            },
+            "parameters": {
+                "skuname": "Premium_LRS"
+            },
+            "provisioner": "disk.csi.azure.com",
+            "reclaimPolicy": "Delete",
+            "volumeBindingMode": "WaitForFirstConsumer"
+        },
+        {
+            "allowVolumeExpansion": true,
+            "apiVersion": "storage.k8s.io/v1",
+            "kind": "StorageClass",
+            "metadata": {
+                "creationTimestamp": "2023-03-16T01:41:36Z",
+                "labels": {
+                    "addonmanager.kubernetes.io/mode": "EnsureExists",
+                    "kubernetes.io/cluster-service": "true"
+                },
+                "name": "managed-premium",
+                "resourceVersion": "328",
+                "uid": "79da92b8-1090-461c-8380-2d6ad172635f"
+            },
+            "parameters": {
+                "cachingmode": "ReadOnly",
+                "kind": "Managed",
+                "storageaccounttype": "Premium_LRS"
+            },
+            "provisioner": "disk.csi.azure.com",
+            "reclaimPolicy": "Delete",
+            "volumeBindingMode": "WaitForFirstConsumer"
+        }
+    ],
+    "kind": "List",
+    "metadata": {
+        "resourceVersion": ""
+    }
+}</t>
         </is>
       </c>
     </row>
@@ -663,12 +878,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dynamic provisioning status</t>
+          <t>Dynamic Provisioning</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>azurefile azurefile-csi azurefile-csi-premium azurefile-premium default managed managed-csi managed-csi-premium managed-premium</t>
+          <t>Available</t>
         </is>
       </c>
     </row>
@@ -685,8 +900,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error: error: the server doesn't have a resource type "ingresscontrollers"
-</t>
+          <t>None</t>
         </is>
       </c>
     </row>
